--- a/biology/Zoologie/Ceratosauria/Ceratosauria.xlsx
+++ b/biology/Zoologie/Ceratosauria/Ceratosauria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ceratosauria sont un infra-ordre de dinosaures théropodes qui vivaient entre le Jurassique et le Crétacé et plus précisément entre le Kimméridgien et le Maastrichtien.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Liste des familles:
 † Ceratosauridae
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Place au sein des théropodes
-Phylogénie simplifiée des groupes de théropodes, d'après Hendrickx et al., 2015[1] :
+          <t>Place au sein des théropodes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phylogénie simplifiée des groupes de théropodes, d'après Hendrickx et al., 2015 :
 Theropoda
 †Coelophysoidea
 †Dilophosauridae
@@ -570,9 +589,43 @@
 †Oviraptorosauria
 Paraves
 Avialae
-Oiseaux
-Phylogénie interne
-D. Pol et O. Rauhut ont proposé en 2012 le cladogramme suivant[2] pour les Ceratosauria :
+Oiseaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ceratosauria</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratosauria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie interne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D. Pol et O. Rauhut ont proposé en 2012 le cladogramme suivant pour les Ceratosauria :
 Ceratosauria
 Berberosaurus
 Deltadromeus
@@ -607,31 +660,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ceratosauria</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ceratosauria</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
